--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2771568.189089555</v>
+        <v>2769023.967153528</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8845799.409963174</v>
+        <v>8845799.409963176</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.52558716632</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
-        <v>21.45987517072724</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.2283896050404</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>29.00708539155848</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U4" t="n">
-        <v>30.40964718213293</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>349.3041378118516</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>263.1370593192583</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885166</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>79.84909313763026</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833734</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V6" t="n">
-        <v>66.10987168201545</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>56.2304531545</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.84008823602244</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.8302881234605</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>207.895202352076</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>164.7844933741926</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>54.22794205402867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,13 +1212,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>146.7288573408052</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29180769719214</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
-        <v>25.4286279315518</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
-        <v>16.76580018997383</v>
+        <v>225.8191502244401</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>73.2391652489962</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>215.1472946632873</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,13 +1664,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>21.63824106824784</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766847</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,19 +2795,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417094</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>145.4338103776663</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.733841663479</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060098</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.5258219170694</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>527.5258219170694</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>527.5258219170694</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>527.5258219170694</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>520.5803211678659</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513811</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4352,28 +4352,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201474</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201474</v>
+        <v>730.1757415093705</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201474</v>
+        <v>540.7559564928856</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201474</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>738.6222485201474</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>716.9456069335542</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>716.9456069335542</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>716.9456069335542</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>440.249846876027</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>265.7968175949</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4410,16 +4410,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
         <v>649.2101578476352</v>
@@ -4437,22 +4437,22 @@
         <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="V3" t="n">
-        <v>750.10234866528</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W3" t="n">
-        <v>750.10234866528</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X3" t="n">
-        <v>750.10234866528</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487952</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="C4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="D4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="E4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="F4" t="n">
-        <v>193.6560157989121</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="G4" t="n">
-        <v>193.6560157989121</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818521</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830975</v>
+        <v>465.2530182692153</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777543</v>
+        <v>587.3641452287299</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143045</v>
+        <v>750.10234866528</v>
       </c>
       <c r="P4" t="n">
         <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R4" t="n">
-        <v>750.10234866528</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="S4" t="n">
-        <v>750.10234866528</v>
+        <v>612.5614882768597</v>
       </c>
       <c r="T4" t="n">
-        <v>750.10234866528</v>
+        <v>423.1417032603748</v>
       </c>
       <c r="U4" t="n">
-        <v>719.3855333297922</v>
+        <v>423.1417032603748</v>
       </c>
       <c r="V4" t="n">
-        <v>529.9657483133074</v>
+        <v>423.1417032603748</v>
       </c>
       <c r="W4" t="n">
-        <v>340.5459632968224</v>
+        <v>233.7219182438899</v>
       </c>
       <c r="X4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
       <c r="Y4" t="n">
-        <v>340.5459632968224</v>
+        <v>44.30213322740508</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1158.127597939135</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="C5" t="n">
-        <v>1158.127597939135</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="D5" t="n">
-        <v>799.8618993323842</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="E5" t="n">
-        <v>414.0736467341399</v>
+        <v>768.8415644830302</v>
       </c>
       <c r="F5" t="n">
-        <v>407.1281459849365</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>394.7162887172151</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038228</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4592,25 +4592,25 @@
         <v>1686.460553127927</v>
       </c>
       <c r="S5" t="n">
-        <v>1544.727438003256</v>
+        <v>1686.460553127927</v>
       </c>
       <c r="T5" t="n">
-        <v>1544.727438003256</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="U5" t="n">
-        <v>1544.727438003256</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="V5" t="n">
-        <v>1544.727438003256</v>
+        <v>1474.442682189358</v>
       </c>
       <c r="W5" t="n">
-        <v>1544.727438003256</v>
+        <v>1121.674026919244</v>
       </c>
       <c r="X5" t="n">
-        <v>1544.727438003256</v>
+        <v>1121.674026919244</v>
       </c>
       <c r="Y5" t="n">
-        <v>1544.727438003256</v>
+        <v>1121.674026919244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.0862289616258</v>
+        <v>508.3556507894603</v>
       </c>
       <c r="C6" t="n">
-        <v>522.6331996804988</v>
+        <v>508.3556507894603</v>
       </c>
       <c r="D6" t="n">
-        <v>373.6987900192476</v>
+        <v>427.7000011554903</v>
       </c>
       <c r="E6" t="n">
-        <v>214.4613350137921</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="F6" t="n">
-        <v>67.92677704067707</v>
+        <v>268.4625461500348</v>
       </c>
       <c r="G6" t="n">
-        <v>67.92677704067707</v>
+        <v>131.3611819303009</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067707</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>183.8748628766941</v>
       </c>
       <c r="K6" t="n">
-        <v>442.288414802421</v>
+        <v>305.2979551469729</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>514.8888283998035</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277257</v>
+        <v>778.8283598952908</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>1064.162230328624</v>
       </c>
       <c r="O6" t="n">
         <v>1448.853441912517</v>
@@ -4677,19 +4677,19 @@
         <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1347.691013115832</v>
+        <v>1119.574596246804</v>
       </c>
       <c r="V6" t="n">
-        <v>1280.91336495218</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="W6" t="n">
-        <v>1280.91336495218</v>
+        <v>884.4224880150612</v>
       </c>
       <c r="X6" t="n">
-        <v>1073.061864746648</v>
+        <v>676.5709878095283</v>
       </c>
       <c r="Y6" t="n">
-        <v>865.3015659816938</v>
+        <v>676.5709878095283</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840.7309549782808</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="C7" t="n">
-        <v>671.7947720503739</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="D7" t="n">
-        <v>521.6781326380382</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="E7" t="n">
-        <v>464.8796951082402</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="F7" t="n">
-        <v>317.9897476103298</v>
+        <v>202.0509834694346</v>
       </c>
       <c r="G7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034537</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1068.720505876298</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1068.720505876298</v>
+        <v>866.3734874035786</v>
       </c>
       <c r="V7" t="n">
-        <v>1068.720505876298</v>
+        <v>611.6889991976917</v>
       </c>
       <c r="W7" t="n">
-        <v>1068.720505876298</v>
+        <v>611.6889991976917</v>
       </c>
       <c r="X7" t="n">
-        <v>840.7309549782808</v>
+        <v>383.6994482996744</v>
       </c>
       <c r="Y7" t="n">
-        <v>840.7309549782808</v>
+        <v>383.6994482996744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1176.267301405522</v>
+        <v>728.4989356883609</v>
       </c>
       <c r="C8" t="n">
-        <v>807.3047844651099</v>
+        <v>728.4989356883609</v>
       </c>
       <c r="D8" t="n">
-        <v>449.0390858583594</v>
+        <v>370.2332370816104</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011519</v>
+        <v>370.2332370816104</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091172</v>
+        <v>363.2877363324069</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761829</v>
+        <v>351.3379503491134</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872708</v>
+        <v>156.8927045872709</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158999</v>
+        <v>376.2952505159003</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985273</v>
+        <v>685.3852714985285</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556943</v>
+        <v>1060.976912556944</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415488</v>
+        <v>1447.25982741549</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.68056897511</v>
+        <v>1798.680568975112</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631088</v>
+        <v>2064.10904063109</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208126</v>
+        <v>2215.26202220813</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="T8" t="n">
-        <v>2007.782172489929</v>
+        <v>2007.782172489932</v>
       </c>
       <c r="U8" t="n">
-        <v>2007.782172489929</v>
+        <v>1841.333189283677</v>
       </c>
       <c r="V8" t="n">
-        <v>2007.782172489929</v>
+        <v>1841.333189283677</v>
       </c>
       <c r="W8" t="n">
-        <v>2007.782172489929</v>
+        <v>1488.564534013562</v>
       </c>
       <c r="X8" t="n">
-        <v>1953.006473445455</v>
+        <v>1115.098775752483</v>
       </c>
       <c r="Y8" t="n">
-        <v>1562.867141469643</v>
+        <v>1115.098775752483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>794.4447314068942</v>
+        <v>583.279731372083</v>
       </c>
       <c r="C9" t="n">
-        <v>619.9917021257672</v>
+        <v>435.0687643611686</v>
       </c>
       <c r="D9" t="n">
-        <v>471.057292464516</v>
+        <v>286.1343546999174</v>
       </c>
       <c r="E9" t="n">
-        <v>311.8198374590605</v>
+        <v>286.1343546999174</v>
       </c>
       <c r="F9" t="n">
-        <v>165.2852794859455</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>139.5997967268023</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676153</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="J9" t="n">
-        <v>217.3941849412456</v>
+        <v>92.564059954241</v>
       </c>
       <c r="K9" t="n">
-        <v>377.945037651313</v>
+        <v>514.9354973067614</v>
       </c>
       <c r="L9" t="n">
-        <v>640.1480134809894</v>
+        <v>932.822225681932</v>
       </c>
       <c r="M9" t="n">
-        <v>965.4833871310952</v>
+        <v>1258.157599332038</v>
       </c>
       <c r="N9" t="n">
-        <v>1313.838064971849</v>
+        <v>1606.512277172792</v>
       </c>
       <c r="O9" t="n">
-        <v>1610.294743387001</v>
+        <v>1902.968955587944</v>
       </c>
       <c r="P9" t="n">
-        <v>1913.59199499678</v>
+        <v>2121.568509855273</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380914</v>
+        <v>2217.777326380918</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472981</v>
+        <v>2079.218696472984</v>
       </c>
       <c r="T9" t="n">
-        <v>1884.596484064437</v>
+        <v>1884.596484064441</v>
       </c>
       <c r="U9" t="n">
-        <v>1867.661332357393</v>
+        <v>1656.496332322582</v>
       </c>
       <c r="V9" t="n">
-        <v>1632.50922412565</v>
+        <v>1421.344224090839</v>
       </c>
       <c r="W9" t="n">
-        <v>1378.271867397449</v>
+        <v>1167.106867362638</v>
       </c>
       <c r="X9" t="n">
-        <v>1170.420367191916</v>
+        <v>959.255367157105</v>
       </c>
       <c r="Y9" t="n">
-        <v>962.6600684269622</v>
+        <v>751.4950683921511</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>585.3004172472199</v>
+        <v>213.2917294555253</v>
       </c>
       <c r="C10" t="n">
-        <v>416.364234319313</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="D10" t="n">
-        <v>266.2475949069773</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="E10" t="n">
-        <v>118.3345013245842</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="F10" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="G10" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="H10" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761829</v>
+        <v>44.35554652761835</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262692028</v>
+        <v>60.9525426269204</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274031</v>
+        <v>218.0633423274033</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918437</v>
+        <v>474.6375091918441</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921712</v>
+        <v>755.5481168921717</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629318</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.51424854613</v>
+        <v>1277.514248546131</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.32336065924</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155968</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1505.148182155968</v>
+        <v>1396.807701620023</v>
       </c>
       <c r="S10" t="n">
-        <v>1505.148182155968</v>
+        <v>1197.947592890927</v>
       </c>
       <c r="T10" t="n">
-        <v>1505.148182155968</v>
+        <v>974.4220387326059</v>
       </c>
       <c r="U10" t="n">
-        <v>1505.148182155968</v>
+        <v>685.2967173212983</v>
       </c>
       <c r="V10" t="n">
-        <v>1505.148182155968</v>
+        <v>430.6122291154114</v>
       </c>
       <c r="W10" t="n">
-        <v>1215.731012119007</v>
+        <v>430.6122291154114</v>
       </c>
       <c r="X10" t="n">
-        <v>987.7414612209898</v>
+        <v>213.2917294555253</v>
       </c>
       <c r="Y10" t="n">
-        <v>766.9488820774596</v>
+        <v>213.2917294555253</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5124,7 +5124,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
         <v>1186.520756890282</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420414</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.067041434951</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616109</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5747,31 +5747,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.17510664033</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266882</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,22 +5981,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,22 +6127,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6227,16 +6227,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,16 +6315,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400703</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6388,46 +6388,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138402</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.50206557031</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5180363231797</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7026,16 +7026,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,19 +7430,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7494,22 +7494,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8146,13 +8146,13 @@
         <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>99.67938739117002</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777618</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8.985656744431139</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>147.3598584166009</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>157.256315702519</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>85.55322963883816</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688308</v>
+        <v>30.32522655688302</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187384</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194318</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562291</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435268</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760029.3719435266</v>
+        <v>760029.3719435267</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26314,19 @@
         <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380334</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
@@ -26335,25 +26335,25 @@
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296907</v>
+        <v>138712.7919296913</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745749</v>
+        <v>589678.7921745741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854467</v>
+        <v>49064.94472854469</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153558</v>
+        <v>60247.15959153569</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484296</v>
+        <v>33617.87336484309</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167274</v>
+        <v>154073.8510167273</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296188</v>
+        <v>170385.5244296186</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685501</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685506</v>
+      </c>
+      <c r="I4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685515</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685513</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685512</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685508</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685505</v>
@@ -26473,7 +26473,7 @@
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969309</v>
+        <v>86168.04029969315</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-249152.4194576313</v>
       </c>
       <c r="C6" t="n">
-        <v>133370.356765451</v>
+        <v>133370.3567654513</v>
       </c>
       <c r="D6" t="n">
-        <v>282093.1034790308</v>
+        <v>282093.1034790304</v>
       </c>
       <c r="E6" t="n">
-        <v>-39122.12933108204</v>
+        <v>-39156.86725651703</v>
       </c>
       <c r="F6" t="n">
-        <v>550556.6628434926</v>
+        <v>550521.9249180575</v>
       </c>
       <c r="G6" t="n">
-        <v>550556.6628434932</v>
+        <v>550521.924918057</v>
       </c>
       <c r="H6" t="n">
-        <v>550556.6628434928</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="I6" t="n">
-        <v>550556.6628434927</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="J6" t="n">
-        <v>501491.7181149485</v>
+        <v>501456.9801895124</v>
       </c>
       <c r="K6" t="n">
-        <v>490309.5032519574</v>
+        <v>490274.7653265216</v>
       </c>
       <c r="L6" t="n">
-        <v>516938.7894786499</v>
+        <v>516904.051553214</v>
       </c>
       <c r="M6" t="n">
-        <v>396482.8118267653</v>
+        <v>396448.0739013299</v>
       </c>
       <c r="N6" t="n">
-        <v>550556.6628434929</v>
+        <v>550521.9249180572</v>
       </c>
       <c r="O6" t="n">
-        <v>550556.6628434929</v>
+        <v>550521.9249180573</v>
       </c>
       <c r="P6" t="n">
-        <v>550556.6628434927</v>
+        <v>550521.9249180573</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790454</v>
+        <v>863.7717861790459</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,13 +26793,13 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952286</v>
+        <v>554.4443315952294</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814354</v>
+        <v>113.7908296814359</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626286</v>
+        <v>504.2037141626279</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.085279846074715e-14</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132476</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.263956504419</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156615</v>
+        <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132474</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.2639565044192</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132468</v>
+        <v>132.8291933132476</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044196</v>
+        <v>618.263956504419</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.572246063738</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>139.0484721057026</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871033</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W2" t="n">
-        <v>327.7810935466858</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.30479404482691</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,7 +27473,7 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27509,16 +27509,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>86.52244598482497</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>137.9948498111557</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378009</v>
       </c>
       <c r="U4" t="n">
-        <v>255.8554343113174</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>98.99741117027099</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>33.42970385162897</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>45.46038613025297</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>67.59597242700849</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,10 +27749,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>166.6907154674098</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>90.20350949206917</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.4475243713015</v>
@@ -27828,10 +27828,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>202.4051725017965</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832801</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787262</v>
+        <v>76.60428439787256</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>86.2833635823099</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>315.5031586244403</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,13 +27932,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>25.9796416475105</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155177</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>209.0533500344662</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>72.18188277393504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4333581046933</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305866</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8715076418046</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.290298616738</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>10.56236072574987</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,13 +28384,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29515,16 +29515,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2.073442107663642e-12</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29746,13 +29746,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.472449391674552</v>
+        <v>3.472449391674554</v>
       </c>
       <c r="H8" t="n">
-        <v>35.56222233248701</v>
+        <v>35.56222233248703</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725333</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566383</v>
+        <v>294.7198015566384</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062221</v>
+        <v>441.7085843062223</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766823</v>
+        <v>547.9785573766826</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458746</v>
+        <v>609.7317292458749</v>
       </c>
       <c r="N8" t="n">
-        <v>619.59782607997</v>
+        <v>619.5978260799703</v>
       </c>
       <c r="O8" t="n">
-        <v>585.068657441506</v>
+        <v>585.0686574415064</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845405</v>
+        <v>499.3425630845408</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451955</v>
+        <v>374.9854692451957</v>
       </c>
       <c r="R8" t="n">
-        <v>218.1262490997768</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278392</v>
+        <v>79.12844051278397</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205536</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339641</v>
+        <v>0.2777959513339642</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328513</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
         <v>17.94363653930433</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986328</v>
+        <v>63.96800491986331</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743662</v>
+        <v>175.5330947743663</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693766</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169212</v>
+        <v>403.4058705169214</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675797</v>
+        <v>470.7556234675799</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436907</v>
+        <v>483.215124043691</v>
       </c>
       <c r="O9" t="n">
-        <v>442.04743476278</v>
+        <v>442.0474347627802</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873895</v>
+        <v>354.7820379873896</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391976</v>
+        <v>237.1623968391977</v>
       </c>
       <c r="R9" t="n">
         <v>115.3542774070809</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498354</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363609</v>
+        <v>7.488738410363612</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347706</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,46 +31674,46 @@
         <v>1.557621253765492</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529683</v>
+        <v>13.84866896529684</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869316</v>
+        <v>46.84191915869319</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412202</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.967269301118</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552805</v>
+        <v>231.5757998552806</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1642116243488</v>
+        <v>244.1642116243489</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057685</v>
+        <v>238.3585324057686</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231443</v>
+        <v>220.1626841231444</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463281</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
         <v>130.4295397130359</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658291</v>
+        <v>70.03631564658293</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14509039516769</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.655290811543463</v>
+        <v>6.655290811543466</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629963</v>
+        <v>0.08496115929629969</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,16 +31844,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>322.8964653704906</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,13 +32336,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32546,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305202</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,10 +34457,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
@@ -34866,13 +34866,13 @@
         <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>123.3445726863783</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068235</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>151.6622745597329</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
-        <v>220.6936095250682</v>
+        <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
         <v>266.605587369179</v>
@@ -35027,7 +35027,7 @@
         <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812712</v>
+        <v>388.5769813978721</v>
       </c>
       <c r="P6" t="n">
         <v>174.0696575289995</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029952</v>
+        <v>113.6738970299521</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612416</v>
+        <v>221.6187332612418</v>
       </c>
       <c r="L8" t="n">
-        <v>312.212142406695</v>
+        <v>312.2121424066954</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960186019</v>
+        <v>379.3854960186022</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1847624833791</v>
+        <v>390.1847624833794</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198193</v>
+        <v>354.9704460198196</v>
       </c>
       <c r="P8" t="n">
-        <v>268.109567329271</v>
+        <v>268.1095673292713</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.679779370746</v>
+        <v>152.6797793707462</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285644647</v>
+        <v>2.540711285644761</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>174.7865034481084</v>
+        <v>48.69546810769964</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1725784950176</v>
+        <v>426.6378155075964</v>
       </c>
       <c r="L9" t="n">
-        <v>264.851490737047</v>
+        <v>422.1078064395663</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455614</v>
+        <v>328.6215895455616</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603574</v>
+        <v>351.8734119603577</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183355</v>
+        <v>299.4511903183358</v>
       </c>
       <c r="P9" t="n">
-        <v>306.3608602118974</v>
+        <v>220.8076305730594</v>
       </c>
       <c r="Q9" t="n">
-        <v>307.2579104890251</v>
+        <v>97.18062275317615</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454747</v>
+        <v>16.76464252454753</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752351</v>
+        <v>158.6977774752352</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155966</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861894</v>
+        <v>283.7480885861895</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849971</v>
+        <v>282.4907047849972</v>
       </c>
       <c r="O10" t="n">
-        <v>244.747812037184</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.6657698112216</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134148</v>
+        <v>44.26749646134154</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>188.9220579561604</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561612</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,10 +38105,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
